--- a/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_KRD.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202109/jsliu__bank_test_&_city_(HF)(202109)_KRD.xlsx
@@ -39,7 +39,7 @@
     <t xml:space="preserve">Cycle: September, 2021        Evaluation Date: September 30, 2021</t>
   </si>
   <si>
-    <t>Printed on: 11/02/21 4:24:11 PM</t>
+    <t>Printed on: 01/06/22 4:55:04 AM</t>
   </si>
   <si>
     <t>Comments:</t>
@@ -3932,37 +3932,37 @@
         <v>18</v>
       </c>
       <c r="B7" s="236">
-        <v>151248.9796795036</v>
+        <v>151248.54968687423</v>
       </c>
       <c r="C7" s="236">
-        <v>0.05817394553797247</v>
+        <v>0.0581776607349221</v>
       </c>
       <c r="D7" s="236">
-        <v>0.33799416549033678</v>
+        <v>0.33795930377477068</v>
       </c>
       <c r="E7" s="236">
-        <v>0.38390499872687511</v>
+        <v>0.3838011729193716</v>
       </c>
       <c r="F7" s="236">
-        <v>0.33249923550805011</v>
+        <v>0.33269008537843087</v>
       </c>
       <c r="G7" s="236">
-        <v>0.23252109416731684</v>
+        <v>0.23258758741420071</v>
       </c>
       <c r="H7" s="236">
-        <v>0.099591491202167981</v>
+        <v>0.099548754063472716</v>
       </c>
       <c r="I7" s="236">
-        <v>0.013331632896583741</v>
+        <v>0.013318764477865586</v>
       </c>
       <c r="J7" s="236">
-        <v>0.0042711851657475887</v>
+        <v>0.0042712082723601608</v>
       </c>
       <c r="K7" s="236">
-        <v>1.4457272079217889</v>
+        <v>1.4456586048673372</v>
       </c>
       <c r="L7" s="236">
-        <v>-0.61002792412723028</v>
+        <v>-0.6079586418202777</v>
       </c>
     </row>
     <row r="8" ht="15" customHeight="1">
@@ -4022,37 +4022,37 @@
         <v>20</v>
       </c>
       <c r="B10" s="236">
-        <v>-197765.14163631437</v>
+        <v>-197765.57162894373</v>
       </c>
       <c r="C10" s="236">
-        <v>-0.021988238243631893</v>
+        <v>-0.021990905285210006</v>
       </c>
       <c r="D10" s="236">
-        <v>-0.10977706770596946</v>
+        <v>-0.10974943234851863</v>
       </c>
       <c r="E10" s="236">
-        <v>-0.14284169842290698</v>
+        <v>-0.14276114850789132</v>
       </c>
       <c r="F10" s="236">
-        <v>-0.1554788332052528</v>
+        <v>-0.15562373172775168</v>
       </c>
       <c r="G10" s="236">
-        <v>-0.11575170195100247</v>
+        <v>-0.11580179789206145</v>
       </c>
       <c r="H10" s="236">
-        <v>-0.025076147856631408</v>
+        <v>-0.025043191986996935</v>
       </c>
       <c r="I10" s="236">
-        <v>0.00065075941639533769</v>
+        <v>0.00066062858792978929</v>
       </c>
       <c r="J10" s="236">
-        <v>-0.0028519111953591377</v>
+        <v>-0.0028519133796486205</v>
       </c>
       <c r="K10" s="236">
-        <v>-0.57047168062713038</v>
+        <v>-0.57041483016992867</v>
       </c>
       <c r="L10" s="236">
-        <v>0.33393660288771032</v>
+        <v>0.33235199013980854</v>
       </c>
     </row>
     <row r="11" ht="15" customHeight="1">
@@ -4179,28 +4179,28 @@
         <v>32</v>
       </c>
       <c r="D40" s="236">
-        <v>18182.765438803919</v>
+        <v>18185.0104371102</v>
       </c>
       <c r="E40" s="236">
-        <v>21763.727907788321</v>
+        <v>21758.296398184269</v>
       </c>
       <c r="F40" s="236">
-        <v>9440.3018281556433</v>
+        <v>9434.998857598117</v>
       </c>
       <c r="G40" s="236">
-        <v>6175.6800956154893</v>
+        <v>6181.4489613131909</v>
       </c>
       <c r="H40" s="236">
-        <v>3289.3220698155951</v>
+        <v>3290.7528034927395</v>
       </c>
       <c r="I40" s="236">
-        <v>500.24230224482477</v>
+        <v>499.585954127387</v>
       </c>
       <c r="J40" s="236">
-        <v>-6.51533070728534</v>
+        <v>-6.614154132593673</v>
       </c>
       <c r="K40" s="236">
-        <v>19.078461978982446</v>
+        <v>19.078518071691704</v>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
@@ -4208,28 +4208,28 @@
         <v>33</v>
       </c>
       <c r="D41" s="236">
-        <v>7.2764635065677394</v>
+        <v>7.2773619204147932</v>
       </c>
       <c r="E41" s="236">
-        <v>19.582949944220516</v>
+        <v>19.578062684962894</v>
       </c>
       <c r="F41" s="236">
-        <v>97.88167411506349</v>
+        <v>97.826690318422</v>
       </c>
       <c r="G41" s="236">
-        <v>118.54182493134972</v>
+        <v>118.65255797726557</v>
       </c>
       <c r="H41" s="236">
-        <v>73.4649045925565</v>
+        <v>73.496859114144186</v>
       </c>
       <c r="I41" s="236">
-        <v>10.385201692302498</v>
+        <v>10.37157568036915</v>
       </c>
       <c r="J41" s="236">
-        <v>-0.18109223975258157</v>
+        <v>-0.18383901596903624</v>
       </c>
       <c r="K41" s="236">
-        <v>0.40757522813029018</v>
+        <v>0.4075764264448502</v>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
@@ -4237,7 +4237,7 @@
         <v>34</v>
       </c>
       <c r="D42" s="236">
-        <v>327.35950177043816</v>
+        <v>327.42684510605443</v>
       </c>
       <c r="E42" s="236">
         <v>0</v>
@@ -4310,28 +4310,28 @@
         <v>44</v>
       </c>
       <c r="D46" s="236">
-        <v>-197142.35195093023</v>
+        <v>-197142.46463772981</v>
       </c>
       <c r="E46" s="236">
-        <v>-197331.25619932509</v>
+        <v>-197331.69210773544</v>
       </c>
       <c r="F46" s="236">
-        <v>-197770.40913850456</v>
+        <v>-197770.83913113392</v>
       </c>
       <c r="G46" s="236">
-        <v>-198339.1949848285</v>
+        <v>-198339.66822055494</v>
       </c>
       <c r="H46" s="236">
-        <v>-199001.82625225079</v>
+        <v>-199002.37577590111</v>
       </c>
       <c r="I46" s="236">
-        <v>-200641.21534915987</v>
+        <v>-200641.80385529998</v>
       </c>
       <c r="J46" s="236">
-        <v>-202435.81309489865</v>
+        <v>-202436.46349230598</v>
       </c>
       <c r="K46" s="236">
-        <v>-204310.65025959219</v>
+        <v>-204311.30927248072</v>
       </c>
     </row>
     <row r="47" ht="15" customHeight="1">
@@ -4339,28 +4339,28 @@
         <v>45</v>
       </c>
       <c r="D47" s="236">
-        <v>-196607.33581850634</v>
+        <v>-196607.66834403013</v>
       </c>
       <c r="E47" s="236">
-        <v>-197195.86351272804</v>
+        <v>-197196.24550924654</v>
       </c>
       <c r="F47" s="236">
-        <v>-197770.4091385045</v>
+        <v>-197770.83913113395</v>
       </c>
       <c r="G47" s="236">
-        <v>-198331.46815137198</v>
+        <v>-198331.94462572539</v>
       </c>
       <c r="H47" s="236">
-        <v>-198879.51003325451</v>
+        <v>-198880.03144542762</v>
       </c>
       <c r="I47" s="236">
-        <v>-199938.30303628033</v>
+        <v>-199938.90961727055</v>
       </c>
       <c r="J47" s="236">
-        <v>-200950.09978819965</v>
+        <v>-200950.78520895966</v>
       </c>
       <c r="K47" s="236">
-        <v>-201917.91008596032</v>
+        <v>-201918.66803518884</v>
       </c>
     </row>
     <row r="48" hidden="1" ht="15" customHeight="1">
@@ -4381,28 +4381,28 @@
         <v>47</v>
       </c>
       <c r="D49" s="236">
-        <v>-0.27138569015198488</v>
+        <v>-0.27127402240933851</v>
       </c>
       <c r="E49" s="236">
-        <v>-0.068611880958322075</v>
+        <v>-0.068639049836428254</v>
       </c>
       <c r="F49" s="236">
-        <v>-2.9431936338212677E-14</v>
+        <v>1.4715936173702595E-14</v>
       </c>
       <c r="G49" s="236">
-        <v>-0.0038957672774194122</v>
+        <v>-0.0038941251131709297</v>
       </c>
       <c r="H49" s="236">
-        <v>-0.061464872609374631</v>
+        <v>-0.061478829082551367</v>
       </c>
       <c r="I49" s="236">
-        <v>-0.35033296207677228</v>
+        <v>-0.35032292599220716</v>
       </c>
       <c r="J49" s="236">
-        <v>-0.73391821535181023</v>
+        <v>-0.73389855647364066</v>
       </c>
       <c r="K49" s="236">
-        <v>-1.1711284607981589</v>
+        <v>-1.1710762589754289</v>
       </c>
     </row>
     <row r="50" hidden="1" ht="15" customHeight="1">
@@ -4553,19 +4553,19 @@
         <v>53</v>
       </c>
       <c r="B75" s="261">
-        <v>3234.99801265673</v>
+        <v>3234.99799955292</v>
       </c>
       <c r="C75" s="261">
-        <v>0.065472153508685377</v>
+        <v>0.065472153705923311</v>
       </c>
       <c r="D75" s="261">
-        <v>0.26797380343927929</v>
+        <v>0.26801074436510358</v>
       </c>
       <c r="E75" s="261">
-        <v>0.62414063756622551</v>
+        <v>0.62406649740866094</v>
       </c>
       <c r="F75" s="261">
-        <v>0.33938572249789822</v>
+        <v>0.33938571879688473</v>
       </c>
       <c r="G75" s="261">
         <v>0</v>
@@ -4580,10 +4580,10 @@
         <v>0</v>
       </c>
       <c r="K75" s="261">
-        <v>1.2968881603854587</v>
+        <v>1.2968509576991534</v>
       </c>
       <c r="L75" s="261">
-        <v>-0.42381897402615781</v>
+        <v>-0.42382101271568229</v>
       </c>
     </row>
     <row r="76" outlineLevel="2">
@@ -4629,37 +4629,37 @@
         <v>55</v>
       </c>
       <c r="B77" s="261">
-        <v>1006.9981025327099</v>
+        <v>1006.99810688759</v>
       </c>
       <c r="C77" s="261">
-        <v>0.033013845926170758</v>
+        <v>0.033015862892448247</v>
       </c>
       <c r="D77" s="261">
-        <v>0.2759136262979815</v>
+        <v>0.27588046880111977</v>
       </c>
       <c r="E77" s="261">
-        <v>0.71077714845719764</v>
+        <v>0.71035620904585006</v>
       </c>
       <c r="F77" s="261">
-        <v>0.94311636918814357</v>
+        <v>0.9434848591737115</v>
       </c>
       <c r="G77" s="261">
-        <v>0.87514713415895218</v>
+        <v>0.87580517187450324</v>
       </c>
       <c r="H77" s="261">
-        <v>0.91625862304446082</v>
+        <v>0.91602177570725241</v>
       </c>
       <c r="I77" s="261">
-        <v>0.45888674727666451</v>
+        <v>0.45879041837324724</v>
       </c>
       <c r="J77" s="261">
-        <v>0.072675369025943751</v>
+        <v>0.072665449174616883</v>
       </c>
       <c r="K77" s="261">
-        <v>4.2784918426199425</v>
+        <v>4.2788856840432672</v>
       </c>
       <c r="L77" s="261">
-        <v>-0.96140652913224944</v>
+        <v>-0.96166870004654359</v>
       </c>
     </row>
     <row r="78" outlineLevel="2">
@@ -4667,37 +4667,37 @@
         <v>56</v>
       </c>
       <c r="B78" s="263">
-        <v>1006.9981025327099</v>
+        <v>1006.99810688759</v>
       </c>
       <c r="C78" s="263">
-        <v>0.033013845926170758</v>
+        <v>0.033015862892448247</v>
       </c>
       <c r="D78" s="263">
-        <v>0.2759136262979815</v>
+        <v>0.27588046880111977</v>
       </c>
       <c r="E78" s="263">
-        <v>0.71077714845719764</v>
+        <v>0.71035620904585006</v>
       </c>
       <c r="F78" s="263">
-        <v>0.94311636918814357</v>
+        <v>0.9434848591737115</v>
       </c>
       <c r="G78" s="263">
-        <v>0.87514713415895218</v>
+        <v>0.87580517187450324</v>
       </c>
       <c r="H78" s="263">
-        <v>0.91625862304446082</v>
+        <v>0.91602177570725241</v>
       </c>
       <c r="I78" s="263">
-        <v>0.45888674727666451</v>
+        <v>0.45879041837324724</v>
       </c>
       <c r="J78" s="263">
-        <v>0.072675369025943751</v>
+        <v>0.072665449174616883</v>
       </c>
       <c r="K78" s="263">
-        <v>4.2784918426199425</v>
+        <v>4.2788856840432672</v>
       </c>
       <c r="L78" s="263">
-        <v>-0.96140652913224944</v>
+        <v>-0.96166870004654359</v>
       </c>
     </row>
     <row r="79" outlineLevel="2">
@@ -4705,37 +4705,37 @@
         <v>57</v>
       </c>
       <c r="B79" s="261">
-        <v>144.25551296196798</v>
+        <v>144.255511987425</v>
       </c>
       <c r="C79" s="261">
-        <v>0.0695350479473307</v>
+        <v>0.069536306202857487</v>
       </c>
       <c r="D79" s="261">
-        <v>0.43743102347588331</v>
+        <v>0.43737801886558419</v>
       </c>
       <c r="E79" s="261">
-        <v>0.53335691256588491</v>
+        <v>0.53160020004767772</v>
       </c>
       <c r="F79" s="261">
-        <v>0.37425939380038004</v>
+        <v>0.37606352963285133</v>
       </c>
       <c r="G79" s="261">
-        <v>0.043740601526672626</v>
+        <v>0.044226245996500151</v>
       </c>
       <c r="H79" s="261">
-        <v>0.072051083979932568</v>
+        <v>0.071754680825653422</v>
       </c>
       <c r="I79" s="261">
-        <v>0.0002751494081369507</v>
+        <v>0.00030027596457097574</v>
       </c>
       <c r="J79" s="261">
-        <v>-0.0012035705666920877</v>
+        <v>-0.0012016119911522007</v>
       </c>
       <c r="K79" s="261">
-        <v>1.5296814502241496</v>
+        <v>1.5301643070334261</v>
       </c>
       <c r="L79" s="261">
-        <v>-0.28163895961734581</v>
+        <v>-0.28079646747624276</v>
       </c>
     </row>
     <row r="80" outlineLevel="2">
@@ -4743,37 +4743,37 @@
         <v>58</v>
       </c>
       <c r="B80" s="263">
-        <v>144.25551296196798</v>
+        <v>144.255511987425</v>
       </c>
       <c r="C80" s="263">
-        <v>0.0695350479473307</v>
+        <v>0.069536306202857487</v>
       </c>
       <c r="D80" s="263">
-        <v>0.43743102347588331</v>
+        <v>0.43737801886558419</v>
       </c>
       <c r="E80" s="263">
-        <v>0.53335691256588491</v>
+        <v>0.53160020004767772</v>
       </c>
       <c r="F80" s="263">
-        <v>0.37425939380038004</v>
+        <v>0.37606352963285133</v>
       </c>
       <c r="G80" s="263">
-        <v>0.043740601526672626</v>
+        <v>0.044226245996500151</v>
       </c>
       <c r="H80" s="263">
-        <v>0.072051083979932568</v>
+        <v>0.071754680825653422</v>
       </c>
       <c r="I80" s="263">
-        <v>0.0002751494081369507</v>
+        <v>0.00030027596457097574</v>
       </c>
       <c r="J80" s="263">
-        <v>-0.0012035705666920877</v>
+        <v>-0.0012016119911522007</v>
       </c>
       <c r="K80" s="263">
-        <v>1.5296814502241496</v>
+        <v>1.5301643070334261</v>
       </c>
       <c r="L80" s="263">
-        <v>-0.28163895961734581</v>
+        <v>-0.28079646747624276</v>
       </c>
     </row>
     <row r="81" outlineLevel="2">
@@ -4781,37 +4781,37 @@
         <v>59</v>
       </c>
       <c r="B81" s="263">
-        <v>1151.2536154946781</v>
+        <v>1151.253618875015</v>
       </c>
       <c r="C81" s="263">
-        <v>0.037590061506027124</v>
+        <v>0.037591983359294263</v>
       </c>
       <c r="D81" s="263">
-        <v>0.29615223807612429</v>
+        <v>0.2961165934807044</v>
       </c>
       <c r="E81" s="263">
-        <v>0.68854586353980951</v>
+        <v>0.68795754798960274</v>
       </c>
       <c r="F81" s="263">
-        <v>0.871836892900566</v>
+        <v>0.8723852742833581</v>
       </c>
       <c r="G81" s="263">
-        <v>0.77096941499208638</v>
+        <v>0.771605852329451</v>
       </c>
       <c r="H81" s="263">
-        <v>0.81047689957793156</v>
+        <v>0.810232590744411</v>
       </c>
       <c r="I81" s="263">
-        <v>0.40142134572607086</v>
+        <v>0.4013402361111772</v>
       </c>
       <c r="J81" s="263">
-        <v>0.06341811746590692</v>
+        <v>0.063409686106638122</v>
       </c>
       <c r="K81" s="263">
-        <v>3.9340576989583176</v>
+        <v>3.9344626976131929</v>
       </c>
       <c r="L81" s="263">
-        <v>-0.87622962448567043</v>
+        <v>-0.87635337864635687</v>
       </c>
     </row>
     <row r="82" outlineLevel="1">
@@ -4819,37 +4819,37 @@
         <v>60</v>
       </c>
       <c r="B82" s="263">
-        <v>4903.518979936186</v>
+        <v>4903.5189702127127</v>
       </c>
       <c r="C82" s="263">
-        <v>0.054315783725899167</v>
+        <v>0.054316235029519482</v>
       </c>
       <c r="D82" s="263">
-        <v>0.27652946729045585</v>
+        <v>0.27654546968171195</v>
       </c>
       <c r="E82" s="263">
-        <v>0.63893537402090272</v>
+        <v>0.63874833624019856</v>
       </c>
       <c r="F82" s="263">
-        <v>0.45724520186763284</v>
+        <v>0.45737394961553668</v>
       </c>
       <c r="G82" s="263">
-        <v>0.18100905290202296</v>
+        <v>0.18115847725595446</v>
       </c>
       <c r="H82" s="263">
-        <v>0.19028466387748205</v>
+        <v>0.19022730571470875</v>
       </c>
       <c r="I82" s="263">
-        <v>0.094246148020486961</v>
+        <v>0.094227105478791193</v>
       </c>
       <c r="J82" s="263">
-        <v>0.014889375837819357</v>
+        <v>0.014887396387188466</v>
       </c>
       <c r="K82" s="263">
-        <v>1.905817150646637</v>
+        <v>1.9058876959814259</v>
       </c>
       <c r="L82" s="263">
-        <v>-0.49032403013954523</v>
+        <v>-0.49035443070857243</v>
       </c>
     </row>
     <row r="83" outlineLevel="2">
@@ -5047,37 +5047,37 @@
         <v>66</v>
       </c>
       <c r="B88" s="261">
-        <v>65484.814147421886</v>
+        <v>65484.384164516</v>
       </c>
       <c r="C88" s="261">
-        <v>0.083041561104653966</v>
+        <v>0.0830502715447402</v>
       </c>
       <c r="D88" s="261">
-        <v>0.52142720546524479</v>
+        <v>0.52134669192705829</v>
       </c>
       <c r="E88" s="261">
-        <v>0.44472502223091781</v>
+        <v>0.444499621845315</v>
       </c>
       <c r="F88" s="261">
-        <v>0.31960313433252407</v>
+        <v>0.32003421275743471</v>
       </c>
       <c r="G88" s="261">
-        <v>0.26575592118455366</v>
+        <v>0.26589852910588541</v>
       </c>
       <c r="H88" s="261">
-        <v>-0.042234511404034808</v>
+        <v>-0.042329857116538687</v>
       </c>
       <c r="I88" s="261">
-        <v>-0.057458393784661138</v>
+        <v>-0.057487154716804677</v>
       </c>
       <c r="J88" s="261">
-        <v>-0.00067241105697050637</v>
+        <v>-0.00067224192390059293</v>
       </c>
       <c r="K88" s="261">
-        <v>1.5070618521323254</v>
+        <v>1.5068985207411061</v>
       </c>
       <c r="L88" s="261">
-        <v>-1.0196541119992517</v>
+        <v>-1.0148751270517491</v>
       </c>
     </row>
     <row r="89" outlineLevel="2">
@@ -5123,37 +5123,37 @@
         <v>68</v>
       </c>
       <c r="B90" s="263">
-        <v>66127.597239679628</v>
+        <v>66127.167256773741</v>
       </c>
       <c r="C90" s="263">
-        <v>0.083104907788965537</v>
+        <v>0.083113533971917314</v>
       </c>
       <c r="D90" s="263">
-        <v>0.51816419996894059</v>
+        <v>0.51808444783800223</v>
       </c>
       <c r="E90" s="263">
-        <v>0.44245554712207663</v>
+        <v>0.44223232296339116</v>
       </c>
       <c r="F90" s="263">
-        <v>0.31770222508936</v>
+        <v>0.31812910089539287</v>
       </c>
       <c r="G90" s="263">
-        <v>0.26379677224931203</v>
+        <v>0.26393798122415446</v>
       </c>
       <c r="H90" s="263">
-        <v>-0.041632915272223917</v>
+        <v>-0.041727330273747011</v>
       </c>
       <c r="I90" s="263">
-        <v>-0.056899592010952238</v>
+        <v>-0.0569280697414931</v>
       </c>
       <c r="J90" s="263">
-        <v>-0.00066592980208233</v>
+        <v>-0.00066576227085648879</v>
       </c>
       <c r="K90" s="263">
-        <v>1.4990457603899325</v>
+        <v>1.4988839645231546</v>
       </c>
       <c r="L90" s="263">
-        <v>-1.015732094981096</v>
+        <v>-1.0109995382158967</v>
       </c>
     </row>
     <row r="91" outlineLevel="2">
@@ -5161,37 +5161,37 @@
         <v>69</v>
       </c>
       <c r="B91" s="263">
-        <v>68074.601151040959</v>
+        <v>68074.171168135072</v>
       </c>
       <c r="C91" s="263">
-        <v>0.08248414432566735</v>
+        <v>0.082492519868334682</v>
       </c>
       <c r="D91" s="263">
-        <v>0.50467918812281765</v>
+        <v>0.50460163182304019</v>
       </c>
       <c r="E91" s="263">
-        <v>0.43679305172199195</v>
+        <v>0.43657617627874</v>
       </c>
       <c r="F91" s="263">
-        <v>0.31190683797417917</v>
+        <v>0.3123214680082867</v>
       </c>
       <c r="G91" s="263">
-        <v>0.25780412773843092</v>
+        <v>0.25794126011334895</v>
       </c>
       <c r="H91" s="263">
-        <v>-0.040107676120730781</v>
+        <v>-0.040199381104410022</v>
       </c>
       <c r="I91" s="263">
-        <v>-0.055272204904351557</v>
+        <v>-0.055299857858135723</v>
       </c>
       <c r="J91" s="263">
-        <v>-0.00064688352164916929</v>
+        <v>-0.00064672066192976647</v>
       </c>
       <c r="K91" s="263">
-        <v>1.4709399150521827</v>
+        <v>1.4707825692160101</v>
       </c>
       <c r="L91" s="263">
-        <v>-1.1860800947275325</v>
+        <v>-1.1814839708113218</v>
       </c>
     </row>
     <row r="92" outlineLevel="2">
@@ -5313,37 +5313,37 @@
         <v>73</v>
       </c>
       <c r="B95" s="263">
-        <v>90094.458963162659</v>
+        <v>90094.028980256786</v>
       </c>
       <c r="C95" s="263">
-        <v>0.07677897702825566</v>
+        <v>0.076785278278181962</v>
       </c>
       <c r="D95" s="263">
-        <v>0.467235493352834</v>
+        <v>0.46717671386386977</v>
       </c>
       <c r="E95" s="263">
-        <v>0.46432503010221932</v>
+        <v>0.46416129252789834</v>
       </c>
       <c r="F95" s="263">
-        <v>0.41502116060606348</v>
+        <v>0.41533494314669733</v>
       </c>
       <c r="G95" s="263">
-        <v>0.30611565619075642</v>
+        <v>0.30621950264992165</v>
       </c>
       <c r="H95" s="263">
-        <v>0.078397853115473759</v>
+        <v>0.0783291273021345</v>
       </c>
       <c r="I95" s="263">
-        <v>-0.00040287321313371309</v>
+        <v>-0.00042350564625149759</v>
       </c>
       <c r="J95" s="263">
-        <v>-0.0060476897221737481</v>
+        <v>-0.0060475924426900574</v>
       </c>
       <c r="K95" s="263">
-        <v>1.7769610429195155</v>
+        <v>1.7768436144544979</v>
       </c>
       <c r="L95" s="263">
-        <v>-1.0010475413354774</v>
+        <v>-0.99757387177072077</v>
       </c>
     </row>
     <row r="96" outlineLevel="2">
@@ -5617,37 +5617,37 @@
         <v>81</v>
       </c>
       <c r="B103" s="263">
-        <v>110420.2559387357</v>
+        <v>110419.82595582983</v>
       </c>
       <c r="C103" s="263">
-        <v>0.073012495651150325</v>
+        <v>0.073017622316275579</v>
       </c>
       <c r="D103" s="263">
-        <v>0.4506900002502463</v>
+        <v>0.45064197630875319</v>
       </c>
       <c r="E103" s="263">
-        <v>0.49748306731245606</v>
+        <v>0.49734959924864353</v>
       </c>
       <c r="F103" s="263">
-        <v>0.43513809292043315</v>
+        <v>0.43539419351644765</v>
       </c>
       <c r="G103" s="263">
-        <v>0.31045931408952715</v>
+        <v>0.31054406167465665</v>
       </c>
       <c r="H103" s="263">
-        <v>0.12796607694883605</v>
+        <v>0.12791019502838977</v>
       </c>
       <c r="I103" s="263">
-        <v>0.014075842192711732</v>
+        <v>0.01405906410582052</v>
       </c>
       <c r="J103" s="263">
-        <v>0.0051892839446937332</v>
+        <v>0.0051894070747550208</v>
       </c>
       <c r="K103" s="263">
-        <v>1.8914029837503079</v>
+        <v>1.8913076168596654</v>
       </c>
       <c r="L103" s="263">
-        <v>-0.88983231356051973</v>
+        <v>-0.8869976350562534</v>
       </c>
     </row>
     <row r="104" outlineLevel="2">
@@ -5807,37 +5807,37 @@
         <v>49</v>
       </c>
       <c r="B108" s="263">
-        <v>151248.9796795036</v>
+        <v>151248.54968687423</v>
       </c>
       <c r="C108" s="263">
-        <v>0.05817394553797247</v>
+        <v>0.0581776607349221</v>
       </c>
       <c r="D108" s="263">
-        <v>0.33799416549033678</v>
+        <v>0.33795930377477068</v>
       </c>
       <c r="E108" s="263">
-        <v>0.38390499872687511</v>
+        <v>0.3838011729193716</v>
       </c>
       <c r="F108" s="263">
-        <v>0.33249923550805011</v>
+        <v>0.33269008537843087</v>
       </c>
       <c r="G108" s="263">
-        <v>0.23252109416731684</v>
+        <v>0.23258758741420071</v>
       </c>
       <c r="H108" s="263">
-        <v>0.099591491202167981</v>
+        <v>0.099548754063472716</v>
       </c>
       <c r="I108" s="263">
-        <v>0.013331632896583741</v>
+        <v>0.013318764477865586</v>
       </c>
       <c r="J108" s="263">
-        <v>0.0042711851657475887</v>
+        <v>0.0042712082723601608</v>
       </c>
       <c r="K108" s="263">
-        <v>1.4457272079217889</v>
+        <v>1.4456586048673372</v>
       </c>
       <c r="L108" s="263">
-        <v>-0.61002792412723028</v>
+        <v>-0.6079586418202777</v>
       </c>
     </row>
     <row r="110">
@@ -6219,37 +6219,37 @@
         <v>94</v>
       </c>
       <c r="B122" s="263">
-        <v>-197765.14163631437</v>
+        <v>-197765.57162894373</v>
       </c>
       <c r="C122" s="263">
-        <v>-0.021988238243631893</v>
+        <v>-0.021990905285210006</v>
       </c>
       <c r="D122" s="263">
-        <v>-0.10977706770596946</v>
+        <v>-0.10974943234851863</v>
       </c>
       <c r="E122" s="263">
-        <v>-0.14284169842290698</v>
+        <v>-0.14276114850789132</v>
       </c>
       <c r="F122" s="263">
-        <v>-0.1554788332052528</v>
+        <v>-0.15562373172775168</v>
       </c>
       <c r="G122" s="263">
-        <v>-0.11575170195100247</v>
+        <v>-0.11580179789206145</v>
       </c>
       <c r="H122" s="263">
-        <v>-0.025076147856631408</v>
+        <v>-0.025043191986996935</v>
       </c>
       <c r="I122" s="263">
-        <v>0.00065075941639533769</v>
+        <v>0.00066062858792978929</v>
       </c>
       <c r="J122" s="263">
-        <v>-0.0028519111953591377</v>
+        <v>-0.0028519133796486205</v>
       </c>
       <c r="K122" s="263">
-        <v>-0.57047168062713038</v>
+        <v>-0.57041483016992867</v>
       </c>
       <c r="L122" s="263">
-        <v>0.33393660288771032</v>
+        <v>0.33235199013980854</v>
       </c>
     </row>
   </sheetData>
